--- a/data/trans_orig/P36BPD13_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD13_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73CC7193-B5D9-44D3-9DD0-D7A5D8852263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA487157-EC94-44AC-B0CA-CFEE8CDCB20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2D47570D-1256-420F-9DD3-DD4810B27114}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{44F66792-8C4C-40B0-89AF-3B919A7A1B17}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>89,62%</t>
   </si>
   <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
   </si>
   <si>
     <t>91,85%</t>
   </si>
   <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
   </si>
   <si>
     <t>90,88%</t>
   </si>
   <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>10,38%</t>
   </si>
   <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
   </si>
   <si>
     <t>8,15%</t>
   </si>
   <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
   </si>
   <si>
     <t>9,12%</t>
   </si>
   <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>91,81%</t>
   </si>
   <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
   </si>
   <si>
     <t>92,82%</t>
   </si>
   <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
   </si>
   <si>
     <t>92,33%</t>
   </si>
   <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
   </si>
   <si>
     <t>8,19%</t>
   </si>
   <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
   </si>
   <si>
     <t>7,18%</t>
   </si>
   <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
   </si>
   <si>
     <t>7,67%</t>
   </si>
   <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -194,55 +194,55 @@
     <t>87,96%</t>
   </si>
   <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
   </si>
   <si>
     <t>90,16%</t>
   </si>
   <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
   </si>
   <si>
     <t>89,07%</t>
   </si>
   <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
   </si>
   <si>
     <t>12,04%</t>
   </si>
   <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
   </si>
   <si>
     <t>9,84%</t>
   </si>
   <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
   </si>
   <si>
     <t>10,93%</t>
   </si>
   <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -251,55 +251,55 @@
     <t>72,51%</t>
   </si>
   <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
   </si>
   <si>
     <t>84,61%</t>
   </si>
   <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
   </si>
   <si>
     <t>79,1%</t>
   </si>
   <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
   </si>
   <si>
     <t>27,49%</t>
   </si>
   <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
   </si>
   <si>
     <t>15,39%</t>
   </si>
   <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
   </si>
   <si>
     <t>20,9%</t>
   </si>
   <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,109 +308,109 @@
     <t>85,1%</t>
   </si>
   <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
   </si>
   <si>
     <t>86,58%</t>
   </si>
   <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
   </si>
   <si>
     <t>85,91%</t>
   </si>
   <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
   </si>
   <si>
     <t>14,9%</t>
   </si>
   <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
   </si>
   <si>
     <t>13,42%</t>
   </si>
   <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
   </si>
   <si>
     <t>14,09%</t>
   </si>
   <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
   </si>
   <si>
     <t>84,5%</t>
   </si>
   <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
   </si>
   <si>
     <t>88,28%</t>
   </si>
   <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
   </si>
   <si>
     <t>86,5%</t>
   </si>
   <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
   </si>
   <si>
     <t>15,5%</t>
   </si>
   <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
   </si>
   <si>
     <t>11,72%</t>
   </si>
   <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
   </si>
   <si>
     <t>13,5%</t>
   </si>
   <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED1D6241-31C8-4B56-96C8-B00C21973589}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C57A019-5B62-40E7-98EC-B28620572031}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P36BPD13_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD13_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA487157-EC94-44AC-B0CA-CFEE8CDCB20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98B51043-BE99-4F15-AE30-CD21B1C7594E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{44F66792-8C4C-40B0-89AF-3B919A7A1B17}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D829053C-0636-4AC6-A026-82299E75030E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Población según si consumen preferentemente carne de pollo, pavo o conejo en vez de ternera, cerdo, hamburguesas o salchichas en 2023 (Tasa respuesta: 99,27%)</t>
   </si>
@@ -65,352 +65,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
   </si>
   <si>
     <t>91,64%</t>
   </si>
   <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
   </si>
   <si>
     <t>8,36%</t>
   </si>
   <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C57A019-5B62-40E7-98EC-B28620572031}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6008B61F-4142-4AB0-A7E1-B4543F8D1FAE}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -943,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>106</v>
+        <v>673</v>
       </c>
       <c r="D4" s="7">
-        <v>89868</v>
+        <v>579029</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -958,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>227</v>
+        <v>1153</v>
       </c>
       <c r="I4" s="7">
-        <v>120076</v>
+        <v>621396</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -973,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>333</v>
+        <v>1826</v>
       </c>
       <c r="N4" s="7">
-        <v>209944</v>
+        <v>1200426</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -994,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D5" s="7">
-        <v>10404</v>
+        <v>53769</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1009,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I5" s="7">
-        <v>10657</v>
+        <v>48974</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1024,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="N5" s="7">
-        <v>21061</v>
+        <v>102743</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1045,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>116</v>
+        <v>727</v>
       </c>
       <c r="D6" s="7">
-        <v>100272</v>
+        <v>632798</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1060,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1232</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>670370</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1075,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>359</v>
+        <v>1959</v>
       </c>
       <c r="N6" s="7">
-        <v>231005</v>
+        <v>1303169</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1098,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>567</v>
+        <v>853</v>
       </c>
       <c r="D7" s="7">
-        <v>503847</v>
+        <v>1067809</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1113,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>926</v>
+        <v>1366</v>
       </c>
       <c r="I7" s="7">
-        <v>545065</v>
+        <v>858498</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1128,10 +1071,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>1493</v>
+        <v>2219</v>
       </c>
       <c r="N7" s="7">
-        <v>1048912</v>
+        <v>1926307</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1149,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="D8" s="7">
-        <v>44926</v>
+        <v>120389</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1164,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="I8" s="7">
-        <v>42158</v>
+        <v>93983</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1179,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>107</v>
+        <v>245</v>
       </c>
       <c r="N8" s="7">
-        <v>87084</v>
+        <v>214372</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1200,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>611</v>
+        <v>958</v>
       </c>
       <c r="D9" s="7">
-        <v>548773</v>
+        <v>1188198</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1215,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>989</v>
+        <v>1506</v>
       </c>
       <c r="I9" s="7">
-        <v>587223</v>
+        <v>952481</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1230,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1600</v>
+        <v>2464</v>
       </c>
       <c r="N9" s="7">
-        <v>1135996</v>
+        <v>2140679</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1253,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>853</v>
+        <v>505</v>
       </c>
       <c r="D10" s="7">
-        <v>909773</v>
+        <v>509461</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1268,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>1366</v>
+        <v>860</v>
       </c>
       <c r="I10" s="7">
-        <v>949742</v>
+        <v>805567</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1283,10 +1226,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>2219</v>
+        <v>1365</v>
       </c>
       <c r="N10" s="7">
-        <v>1859514</v>
+        <v>1315028</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1304,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="D11" s="7">
-        <v>124514</v>
+        <v>190360</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1319,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="I11" s="7">
-        <v>103694</v>
+        <v>121486</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1334,10 +1277,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>245</v>
+        <v>344</v>
       </c>
       <c r="N11" s="7">
-        <v>228208</v>
+        <v>311846</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1355,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>958</v>
+        <v>671</v>
       </c>
       <c r="D12" s="7">
-        <v>1034287</v>
+        <v>699821</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1370,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1506</v>
+        <v>1038</v>
       </c>
       <c r="I12" s="7">
-        <v>1053436</v>
+        <v>927053</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1385,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2464</v>
+        <v>1709</v>
       </c>
       <c r="N12" s="7">
-        <v>2087722</v>
+        <v>1626874</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1408,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>505</v>
+        <v>854</v>
       </c>
       <c r="D13" s="7">
-        <v>524662</v>
+        <v>780306</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1423,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>860</v>
+        <v>1349</v>
       </c>
       <c r="I13" s="7">
-        <v>733762</v>
+        <v>948196</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1438,10 +1381,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>1365</v>
+        <v>2203</v>
       </c>
       <c r="N13" s="7">
-        <v>1258424</v>
+        <v>1728503</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1459,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="D14" s="7">
-        <v>198908</v>
+        <v>138733</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1474,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="I14" s="7">
-        <v>133513</v>
+        <v>137290</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1492,7 +1435,7 @@
         <v>344</v>
       </c>
       <c r="N14" s="7">
-        <v>332421</v>
+        <v>276022</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1510,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>671</v>
+        <v>997</v>
       </c>
       <c r="D15" s="7">
-        <v>723570</v>
+        <v>919039</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1525,10 +1468,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1038</v>
+        <v>1550</v>
       </c>
       <c r="I15" s="7">
-        <v>867275</v>
+        <v>1085486</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1540,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1709</v>
+        <v>2547</v>
       </c>
       <c r="N15" s="7">
-        <v>1590845</v>
+        <v>2004525</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1557,55 +1500,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>854</v>
+        <v>2885</v>
       </c>
       <c r="D16" s="7">
-        <v>814922</v>
+        <v>2936605</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>4728</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3233657</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>1349</v>
-      </c>
-      <c r="I16" s="7">
-        <v>987198</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>7613</v>
+      </c>
+      <c r="N16" s="7">
+        <v>6170262</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>2203</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1802120</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>143</v>
+        <v>468</v>
       </c>
       <c r="D17" s="7">
-        <v>142698</v>
+        <v>503251</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>598</v>
+      </c>
+      <c r="I17" s="7">
+        <v>401733</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>201</v>
-      </c>
-      <c r="I17" s="7">
-        <v>152959</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1066</v>
+      </c>
+      <c r="N17" s="7">
+        <v>904984</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>344</v>
-      </c>
-      <c r="N17" s="7">
-        <v>295657</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>997</v>
+        <v>3353</v>
       </c>
       <c r="D18" s="7">
-        <v>957620</v>
+        <v>3439856</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1680,10 +1623,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1550</v>
+        <v>5326</v>
       </c>
       <c r="I18" s="7">
-        <v>1140157</v>
+        <v>3635390</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1695,10 +1638,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2547</v>
+        <v>8679</v>
       </c>
       <c r="N18" s="7">
-        <v>2097777</v>
+        <v>7075246</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1711,171 +1654,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2885</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2843073</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>4728</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3335843</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>7613</v>
-      </c>
-      <c r="N19" s="7">
-        <v>6178915</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>468</v>
-      </c>
-      <c r="D20" s="7">
-        <v>521449</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>598</v>
-      </c>
-      <c r="I20" s="7">
-        <v>442981</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1066</v>
-      </c>
-      <c r="N20" s="7">
-        <v>964431</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3353</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3364522</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5326</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3778824</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8679</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7143346</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
